--- a/public/excel/banglop.xlsx
+++ b/public/excel/banglop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lms_highschool\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project_it\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0659637C-7C92-49E9-90C9-28DB8ABB7C1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1282EA11-16B7-46B0-9D47-23C5DAD0AB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="5680" xr2:uid="{335B8981-0DC8-4D30-A460-3C8A6C067A87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{335B8981-0DC8-4D30-A460-3C8A6C067A87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,13 +43,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +81,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -132,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -238,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,22 +423,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
